--- a/jmh-result.xlsx
+++ b/jmh-result.xlsx
@@ -2,19 +2,23 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
-  <workbookPr/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaronhoffer/repos/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="jmh-result" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="jmh-result" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="64">
   <si>
     <t>Benchmark</t>
   </si>
@@ -68,19 +72,10 @@
     <t>land-100kb.jpg</t>
   </si>
   <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrSimple:Â·gc.alloc.rate</t>
-  </si>
-  <si>
     <t>MB/sec</t>
   </si>
   <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrSimple:Â·gc.alloc.rate.norm</t>
-  </si>
-  <si>
     <t>B/op</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrSimple:Â·gc.count</t>
   </si>
   <si>
     <t>NaN</t>
@@ -92,31 +87,10 @@
     <t>crowd-3mb.jpg</t>
   </si>
   <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrSimple:Â·gc.churn.PS_Eden_Space</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrSimple:Â·gc.churn.PS_Eden_Space.norm</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrSimple:Â·gc.time</t>
-  </si>
-  <si>
     <t>ms</t>
   </si>
   <si>
     <t>land-8mb.jpg</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrSimple:Â·gc.churn.PS_Old_Gen</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrSimple:Â·gc.churn.PS_Old_Gen.norm</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrSimple:Â·gc.churn.PS_Survivor_Space</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrSimple:Â·gc.churn.PS_Survivor_Space.norm</t>
   </si>
   <si>
     <t>building-30mb.jpg</t>
@@ -134,79 +108,121 @@
     <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer</t>
   </si>
   <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:Â·gc.alloc.rate</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:Â·gc.alloc.rate.norm</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:Â·gc.count</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:Â·gc.churn.PS_Eden_Space</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:Â·gc.churn.PS_Eden_Space.norm</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:Â·gc.time</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:Â·gc.churn.PS_Old_Gen</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:Â·gc.churn.PS_Old_Gen.norm</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:Â·gc.churn.PS_Survivor_Space</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:Â·gc.churn.PS_Survivor_Space.norm</t>
-  </si>
-  <si>
     <t>thumbnail.ThumbnailBenchmark.subsampling2</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling2:Â·gc.alloc.rate</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling2:Â·gc.alloc.rate.norm</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling2:Â·gc.count</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling2:Â·gc.churn.PS_Eden_Space</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling2:Â·gc.churn.PS_Eden_Space.norm</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling2:Â·gc.time</t>
   </si>
   <si>
     <t>thumbnail.ThumbnailBenchmark.subsampling4</t>
   </si>
   <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling4:Â·gc.alloc.rate</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling4:Â·gc.alloc.rate.norm</t>
-  </si>
-  <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling4:Â·gc.count</t>
-  </si>
-  <si>
     <t>thumbnail.ThumbnailBenchmark.subsampling8</t>
   </si>
   <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling8:Â·gc.alloc.rate</t>
+    <t>thumbnail.ThumbnailBenchmark.scalrSimple:·gc.alloc.rate</t>
   </si>
   <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling8:Â·gc.alloc.rate.norm</t>
+    <t>thumbnail.ThumbnailBenchmark.scalrSimple:·gc.alloc.rate.norm</t>
   </si>
   <si>
-    <t>thumbnail.ThumbnailBenchmark.subsampling8:Â·gc.count</t>
+    <t>thumbnail.ThumbnailBenchmark.scalrSimple:·gc.count</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Eden_Space</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Eden_Space.norm</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrSimple:·gc.time</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Old_Gen</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Old_Gen.norm</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Survivor_Space</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Survivor_Space.norm</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.alloc.rate</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.alloc.rate.norm</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.count</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Eden_Space</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Eden_Space.norm</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.time</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Old_Gen</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Old_Gen.norm</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Survivor_Space</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Survivor_Space.norm</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling2:·gc.alloc.rate</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling2:·gc.alloc.rate.norm</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling2:·gc.count</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling2:·gc.churn.PS_Eden_Space</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling2:·gc.churn.PS_Eden_Space.norm</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling2:·gc.time</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling4:·gc.alloc.rate</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling4:·gc.alloc.rate.norm</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling4:·gc.count</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling8:·gc.alloc.rate</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling8:·gc.alloc.rate.norm</t>
+  </si>
+  <si>
+    <t>thumbnail.ThumbnailBenchmark.subsampling8:·gc.count</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of Score</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
   </si>
 </sst>
 </file>
@@ -248,16 +264,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -265,6 +302,2972 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="42946.355381944442" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="207">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:I208" sheet="jmh-result"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Benchmark" numFmtId="0">
+      <sharedItems count="37">
+        <s v="thumbnail.ThumbnailBenchmark.scalrSimple"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrSimple:·gc.alloc.rate"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrSimple:·gc.alloc.rate.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrSimple:·gc.count"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Eden_Space"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Eden_Space.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrSimple:·gc.time"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Old_Gen"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Old_Gen.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Survivor_Space"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrSimple:·gc.churn.PS_Survivor_Space.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrTikaTransformer"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.alloc.rate"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.alloc.rate.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.count"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Eden_Space"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Eden_Space.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.time"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Old_Gen"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Old_Gen.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Survivor_Space"/>
+        <s v="thumbnail.ThumbnailBenchmark.scalrTikaTransformer:·gc.churn.PS_Survivor_Space.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling2"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling2:·gc.alloc.rate"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling2:·gc.alloc.rate.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling2:·gc.count"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling2:·gc.churn.PS_Eden_Space"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling2:·gc.churn.PS_Eden_Space.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling2:·gc.time"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling4"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling4:·gc.alloc.rate"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling4:·gc.alloc.rate.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling4:·gc.count"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling8"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling8:·gc.alloc.rate"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling8:·gc.alloc.rate.norm"/>
+        <s v="thumbnail.ThumbnailBenchmark.subsampling8:·gc.count"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Mode" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Threads" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+    </cacheField>
+    <cacheField name="Samples" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="3"/>
+    </cacheField>
+    <cacheField name="Score" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="3218664413.3333302" count="172">
+        <n v="5.4780000000000002E-3"/>
+        <n v="167.124291"/>
+        <n v="1441992.9316110001"/>
+        <n v="0"/>
+        <n v="0.32614799999999999"/>
+        <n v="252.97874200000001"/>
+        <n v="126397114"/>
+        <n v="215.26943199999999"/>
+        <n v="113515920"/>
+        <n v="1"/>
+        <n v="2"/>
+        <n v="4.493061"/>
+        <n v="231.10084599999999"/>
+        <n v="1205965056"/>
+        <n v="205.764274"/>
+        <n v="1073741824"/>
+        <n v="260.352915"/>
+        <n v="1399379469.3333299"/>
+        <n v="0.13872599999999999"/>
+        <n v="734986.66666700004"/>
+        <n v="6"/>
+        <n v="892"/>
+        <n v="1.847585"/>
+        <n v="151.671966"/>
+        <n v="373372917.33333302"/>
+        <n v="141.49422799999999"/>
+        <n v="357913941.33333302"/>
+        <n v="124"/>
+        <n v="4.0691230000000003"/>
+        <n v="188.10655299999999"/>
+        <n v="902691330.66666698"/>
+        <n v="207.51893799999999"/>
+        <n v="995483834.66666698"/>
+        <n v="7.4478000000000003E-2"/>
+        <n v="356808"/>
+        <n v="3"/>
+        <n v="12.348917"/>
+        <n v="214.60309799999999"/>
+        <n v="2865289706.6666598"/>
+        <n v="109.006416"/>
+        <n v="1431655765.3333299"/>
+        <n v="104.781159"/>
+        <n v="1398889357.3333299"/>
+        <n v="7.3211999999999999E-2"/>
+        <n v="1115522.6666669999"/>
+        <n v="4"/>
+        <n v="1204"/>
+        <n v="10.867979"/>
+        <n v="142.75189800000001"/>
+        <n v="1704356048"/>
+        <n v="89.933480000000003"/>
+        <n v="71.366212000000004"/>
+        <n v="852062701.33333302"/>
+        <n v="6.6186999999999996E-2"/>
+        <n v="790456"/>
+        <n v="342"/>
+        <n v="9.9369999999999997E-3"/>
+        <n v="162.48516699999999"/>
+        <n v="2543165.132247"/>
+        <n v="0.72462800000000005"/>
+        <n v="232.55453199999999"/>
+        <n v="238473185.33333299"/>
+        <n v="168.60404700000001"/>
+        <n v="176878352"/>
+        <n v="70"/>
+        <n v="8.1776599999999995"/>
+        <n v="249.59474800000001"/>
+        <n v="2271984826.6666598"/>
+        <n v="154.10527500000001"/>
+        <n v="1409049938.6666601"/>
+        <n v="211.064358"/>
+        <n v="1932382944"/>
+        <n v="1660"/>
+        <n v="3.060972"/>
+        <n v="187.76323400000001"/>
+        <n v="702380989.33333302"/>
+        <n v="271.12969800000002"/>
+        <n v="1014469648"/>
+        <n v="171.72878700000001"/>
+        <n v="657415784"/>
+        <n v="0.29909000000000002"/>
+        <n v="1131802.6666669999"/>
+        <n v="514"/>
+        <n v="6.7577449999999999"/>
+        <n v="224.14270099999999"/>
+        <n v="1702164002.6666601"/>
+        <n v="178.08927800000001"/>
+        <n v="1357661544"/>
+        <n v="257.36398800000001"/>
+        <n v="1948957421.3333299"/>
+        <n v="13.331913999999999"/>
+        <n v="100325872"/>
+        <n v="7"/>
+        <n v="1134"/>
+        <n v="15.607682"/>
+        <n v="190.35726299999999"/>
+        <n v="3218664413.3333302"/>
+        <n v="63.502901000000001"/>
+        <n v="117.540341"/>
+        <n v="1987436466.6666601"/>
+        <n v="367"/>
+        <n v="4.1089999999999998E-3"/>
+        <n v="69.226978000000003"/>
+        <n v="448900.00949600001"/>
+        <n v="0.25429400000000002"/>
+        <n v="83.178332999999995"/>
+        <n v="31733069.466667"/>
+        <n v="2.3043420000000001"/>
+        <n v="102.943431"/>
+        <n v="303367330.66666698"/>
+        <n v="114.948746"/>
+        <n v="98"/>
+        <n v="1.2615780000000001"/>
+        <n v="50.811813000000001"/>
+        <n v="94291544"/>
+        <n v="2.2818320000000001"/>
+        <n v="77.515338999999997"/>
+        <n v="226567597.33333299"/>
+        <n v="119.299997"/>
+        <n v="73"/>
+        <n v="12.140936"/>
+        <n v="31.322579999999999"/>
+        <n v="415504338.66666698"/>
+        <n v="26.697037000000002"/>
+        <n v="230"/>
+        <n v="9.3611629999999995"/>
+        <n v="41.169626000000001"/>
+        <n v="426506885.33333302"/>
+        <n v="34.951345000000003"/>
+        <n v="356844573.33333302"/>
+        <n v="3.6519999999999999E-3"/>
+        <n v="34.836277000000003"/>
+        <n v="201093.57054300001"/>
+        <n v="0.20603399999999999"/>
+        <n v="25.002253"/>
+        <n v="8063188.7999999998"/>
+        <n v="1.5634680000000001"/>
+        <n v="35.364241"/>
+        <n v="76920765.333333001"/>
+        <n v="1.0257270000000001"/>
+        <n v="17.149979999999999"/>
+        <n v="24254273.333333001"/>
+        <n v="1.6864159999999999"/>
+        <n v="24.918329"/>
+        <n v="57265232"/>
+        <n v="9.9887870000000003"/>
+        <n v="13.906731000000001"/>
+        <n v="153063904"/>
+        <n v="9.8109610000000007"/>
+        <n v="9.8735859999999995"/>
+        <n v="106953269.333333"/>
+        <n v="4.0010000000000002E-3"/>
+        <n v="22.075762000000001"/>
+        <n v="139263.23191199999"/>
+        <n v="0.21246399999999999"/>
+        <n v="6.4915649999999996"/>
+        <n v="2139134.9333330002"/>
+        <n v="1.542122"/>
+        <n v="9.3016129999999997"/>
+        <n v="20013984"/>
+        <n v="1.024851"/>
+        <n v="4.2934559999999999"/>
+        <n v="6491746.6666670004"/>
+        <n v="1.5825929999999999"/>
+        <n v="6.6948869999999996"/>
+        <n v="14666898.666666999"/>
+        <n v="9.5463039999999992"/>
+        <n v="8.2979819999999993"/>
+        <n v="87453800"/>
+        <n v="9.7478990000000003"/>
+        <n v="2.513137"/>
+        <n v="27055858.666666999"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Score Error (99.9%)" numFmtId="3">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0" maxValue="20773717238.032001"/>
+    </cacheField>
+    <cacheField name="Unit" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Param: filename" numFmtId="0">
+      <sharedItems count="7">
+        <s v="land-100kb.jpg"/>
+        <s v="crowd-3mb.jpg"/>
+        <s v="land-8mb.jpg"/>
+        <s v="building-30mb.jpg"/>
+        <s v="mountains-20mb.jpg"/>
+        <s v="australia-250mb.png"/>
+        <s v="salt-lake-340mb.jpg"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Param: thumbSize" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="200"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="207">
+  <r>
+    <x v="0"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="0"/>
+    <n v="6.2560000000000003E-3"/>
+    <s v="s/op"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="1"/>
+    <n v="181.10994299999999"/>
+    <s v="MB/sec"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="2"/>
+    <n v="17062.329589000001"/>
+    <s v="B/op"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="4"/>
+    <n v="0.61353899999999995"/>
+    <s v="s/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="5"/>
+    <n v="565.24033499999996"/>
+    <s v="MB/sec"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="6"/>
+    <n v="1124863.7258039999"/>
+    <s v="B/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="7"/>
+    <n v="6802.3105290000003"/>
+    <s v="MB/sec"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="3586995751.3752999"/>
+    <s v="B/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="9"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="10"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="11"/>
+    <n v="7.5910169999999999"/>
+    <s v="s/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="12"/>
+    <n v="372.09197499999999"/>
+    <s v="MB/sec"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="13"/>
+    <n v="5297902.219149"/>
+    <s v="B/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="14"/>
+    <n v="331.79752100000002"/>
+    <s v="MB/sec"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="15"/>
+    <n v="0"/>
+    <s v="B/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="16"/>
+    <n v="2112.724346"/>
+    <s v="MB/sec"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="17"/>
+    <n v="12634751852.2139"/>
+    <s v="B/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="18"/>
+    <n v="0.75605"/>
+    <s v="MB/sec"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="19"/>
+    <n v="4722274.4555449998"/>
+    <s v="B/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="20"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="21"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="22"/>
+    <n v="3.065455"/>
+    <s v="s/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="23"/>
+    <n v="193.54643100000001"/>
+    <s v="MB/sec"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="24"/>
+    <n v="4006044.3595949998"/>
+    <s v="B/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="25"/>
+    <n v="4471.0838290000002"/>
+    <s v="MB/sec"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="26"/>
+    <n v="11309742165.862301"/>
+    <s v="B/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="9"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="27"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="28"/>
+    <n v="0.663304"/>
+    <s v="s/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="29"/>
+    <n v="31.446674999999999"/>
+    <s v="MB/sec"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="30"/>
+    <n v="2602422.5511850002"/>
+    <s v="B/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="31"/>
+    <n v="257.94492500000001"/>
+    <s v="MB/sec"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="32"/>
+    <n v="1071038731.68235"/>
+    <s v="B/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="33"/>
+    <n v="2.3533439999999999"/>
+    <s v="MB/sec"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="34"/>
+    <n v="11274289.884218"/>
+    <s v="B/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="35"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="20"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="36"/>
+    <n v="29.725709999999999"/>
+    <s v="s/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="37"/>
+    <n v="460.64032400000002"/>
+    <s v="MB/sec"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="38"/>
+    <n v="5596800.8778449995"/>
+    <s v="B/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="39"/>
+    <n v="999.04217900000003"/>
+    <s v="MB/sec"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="40"/>
+    <n v="11309742165.862301"/>
+    <s v="B/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="41"/>
+    <n v="226.58755500000001"/>
+    <s v="MB/sec"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="42"/>
+    <n v="25676528.214636002"/>
+    <s v="B/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="43"/>
+    <n v="2.0696110000000001"/>
+    <s v="MB/sec"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="44"/>
+    <n v="32193141.635196"/>
+    <s v="B/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="45"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="46"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="47"/>
+    <n v="0.97702100000000003"/>
+    <s v="s/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="48"/>
+    <n v="9.6011860000000002"/>
+    <s v="MB/sec"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="49"/>
+    <n v="6033412.0259670001"/>
+    <s v="B/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="50"/>
+    <n v="5.9827199999999996"/>
+    <s v="MB/sec"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="15"/>
+    <n v="0"/>
+    <s v="B/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="51"/>
+    <n v="4.214601"/>
+    <s v="MB/sec"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="52"/>
+    <n v="6971045.6280340003"/>
+    <s v="B/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="53"/>
+    <n v="0.176591"/>
+    <s v="MB/sec"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="54"/>
+    <n v="2155435.705207"/>
+    <s v="B/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="20"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="55"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="56"/>
+    <n v="4.1489999999999999E-3"/>
+    <s v="s/op"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="57"/>
+    <n v="53.222304999999999"/>
+    <s v="MB/sec"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="58"/>
+    <n v="38485.119781000001"/>
+    <s v="B/op"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="59"/>
+    <n v="0.65182700000000005"/>
+    <s v="s/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="60"/>
+    <n v="141.063804"/>
+    <s v="MB/sec"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="61"/>
+    <n v="2229939.945938"/>
+    <s v="B/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="62"/>
+    <n v="5327.7284980000004"/>
+    <s v="MB/sec"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="63"/>
+    <n v="5589188698.2395496"/>
+    <s v="B/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="9"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="64"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="65"/>
+    <n v="5.891"/>
+    <s v="s/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="66"/>
+    <n v="165.51910000000001"/>
+    <s v="MB/sec"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="67"/>
+    <n v="5265119.162982"/>
+    <s v="B/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="68"/>
+    <n v="1109.5396040000001"/>
+    <s v="MB/sec"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="69"/>
+    <n v="10595419415.276699"/>
+    <s v="B/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="70"/>
+    <n v="804.26397699999995"/>
+    <s v="MB/sec"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="71"/>
+    <n v="8419212953.0149498"/>
+    <s v="B/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="20"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="72"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="73"/>
+    <n v="1.204671"/>
+    <s v="s/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="74"/>
+    <n v="69.627909000000002"/>
+    <s v="MB/sec"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="75"/>
+    <n v="3995300.7963049999"/>
+    <s v="B/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="76"/>
+    <n v="281.33994999999999"/>
+    <s v="MB/sec"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="77"/>
+    <n v="1086386486.71696"/>
+    <s v="B/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="78"/>
+    <n v="5426.4673220000004"/>
+    <s v="MB/sec"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="79"/>
+    <n v="20773717238.032001"/>
+    <s v="B/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="80"/>
+    <n v="5.8234139999999996"/>
+    <s v="MB/sec"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="81"/>
+    <n v="22338961.976771999"/>
+    <s v="B/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="45"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="82"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="83"/>
+    <n v="8.9909009999999991"/>
+    <s v="s/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="84"/>
+    <n v="279.24863800000003"/>
+    <s v="MB/sec"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="85"/>
+    <n v="2620291.543273"/>
+    <s v="B/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="86"/>
+    <n v="1131.5106410000001"/>
+    <s v="MB/sec"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="87"/>
+    <n v="8971594727.6088295"/>
+    <s v="B/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="88"/>
+    <n v="1358.6199819999999"/>
+    <s v="MB/sec"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="89"/>
+    <n v="9475370478.4805908"/>
+    <s v="B/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="90"/>
+    <n v="211.347385"/>
+    <s v="MB/sec"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="91"/>
+    <n v="1580162548.1875999"/>
+    <s v="B/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="92"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="93"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="94"/>
+    <n v="1.092859"/>
+    <s v="s/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="95"/>
+    <n v="7.5061559999999998"/>
+    <s v="MB/sec"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="96"/>
+    <n v="6032937.1277820002"/>
+    <s v="B/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="97"/>
+    <n v="2.385278"/>
+    <s v="MB/sec"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="15"/>
+    <n v="0"/>
+    <s v="B/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="98"/>
+    <n v="4.4160820000000003"/>
+    <s v="MB/sec"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="99"/>
+    <n v="2984180.3028699998"/>
+    <s v="B/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="35"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="100"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="101"/>
+    <n v="3.3600000000000001E-3"/>
+    <s v="s/op"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="102"/>
+    <n v="61.028354999999998"/>
+    <s v="MB/sec"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="103"/>
+    <n v="14904.096449999999"/>
+    <s v="B/op"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="104"/>
+    <n v="0.111497"/>
+    <s v="s/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="105"/>
+    <n v="80.555289999999999"/>
+    <s v="MB/sec"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="106"/>
+    <n v="898566.24464199995"/>
+    <s v="B/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="107"/>
+    <n v="2.7094640000000001"/>
+    <s v="s/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="108"/>
+    <n v="94.370519000000002"/>
+    <s v="MB/sec"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="109"/>
+    <n v="5293434.7908439999"/>
+    <s v="B/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="110"/>
+    <n v="3632.2716879999998"/>
+    <s v="MB/sec"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="26"/>
+    <n v="11309742165.862301"/>
+    <s v="B/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="9"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="111"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="112"/>
+    <n v="0.27025300000000002"/>
+    <s v="s/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="113"/>
+    <n v="6.2958509999999999"/>
+    <s v="MB/sec"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="114"/>
+    <n v="3976053.0081330002"/>
+    <s v="B/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="115"/>
+    <n v="1.3057270000000001"/>
+    <s v="s/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="116"/>
+    <n v="37.202379000000001"/>
+    <s v="MB/sec"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="117"/>
+    <n v="2597115.404106"/>
+    <s v="B/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="118"/>
+    <n v="3769.7671140000002"/>
+    <s v="MB/sec"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="26"/>
+    <n v="11309742165.862301"/>
+    <s v="B/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="9"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="119"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="120"/>
+    <n v="2.2831220000000001"/>
+    <s v="s/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="121"/>
+    <n v="5.6635580000000001"/>
+    <s v="MB/sec"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="122"/>
+    <n v="5591232.4221449997"/>
+    <s v="B/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="123"/>
+    <n v="843.60112200000003"/>
+    <s v="MB/sec"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="26"/>
+    <n v="11309742165.862301"/>
+    <s v="B/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="9"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="124"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="125"/>
+    <n v="2.7638769999999999"/>
+    <s v="s/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="126"/>
+    <n v="11.275504"/>
+    <s v="MB/sec"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="127"/>
+    <n v="6029149.0944670001"/>
+    <s v="B/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="128"/>
+    <n v="1104.429449"/>
+    <s v="MB/sec"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="129"/>
+    <n v="11275951148.068001"/>
+    <s v="B/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="9"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="35"/>
+    <s v="NaN"/>
+    <s v="ms"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="130"/>
+    <n v="1.4040000000000001E-3"/>
+    <s v="s/op"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="131"/>
+    <n v="11.6686"/>
+    <s v="MB/sec"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="132"/>
+    <n v="12186.540723"/>
+    <s v="B/op"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="133"/>
+    <n v="0.104796"/>
+    <s v="s/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="134"/>
+    <n v="8.3821519999999996"/>
+    <s v="MB/sec"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="135"/>
+    <n v="897475.70929000003"/>
+    <s v="B/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="136"/>
+    <n v="0.19706099999999999"/>
+    <s v="s/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="137"/>
+    <n v="3.3150729999999999"/>
+    <s v="MB/sec"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="138"/>
+    <n v="5268547.9537340002"/>
+    <s v="B/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="139"/>
+    <n v="0.85356500000000002"/>
+    <s v="s/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="140"/>
+    <n v="39.055413999999999"/>
+    <s v="MB/sec"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="141"/>
+    <n v="3991194.3743500002"/>
+    <s v="B/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="142"/>
+    <n v="0.13822200000000001"/>
+    <s v="s/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="143"/>
+    <n v="1.7917749999999999"/>
+    <s v="MB/sec"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="144"/>
+    <n v="2642839.155237"/>
+    <s v="B/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="145"/>
+    <n v="4.3813979999999999"/>
+    <s v="s/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="146"/>
+    <n v="5.8602860000000003"/>
+    <s v="MB/sec"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="147"/>
+    <n v="5609972.4947530003"/>
+    <s v="B/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="148"/>
+    <n v="3.4793470000000002"/>
+    <s v="s/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="149"/>
+    <n v="3.3580510000000001"/>
+    <s v="MB/sec"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="150"/>
+    <n v="6026041.0299079996"/>
+    <s v="B/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="151"/>
+    <n v="7.8700000000000005E-4"/>
+    <s v="s/op"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="152"/>
+    <n v="4.3167590000000002"/>
+    <s v="MB/sec"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="153"/>
+    <n v="13904.097233"/>
+    <s v="B/op"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="0"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="154"/>
+    <n v="3.1945000000000001E-2"/>
+    <s v="s/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="155"/>
+    <n v="1.455436"/>
+    <s v="MB/sec"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="156"/>
+    <n v="897400.52703400003"/>
+    <s v="B/op"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="1"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="157"/>
+    <n v="0.71279599999999999"/>
+    <s v="s/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="158"/>
+    <n v="3.7527080000000002"/>
+    <s v="MB/sec"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="159"/>
+    <n v="5326531.8410999998"/>
+    <s v="B/op"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="2"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="160"/>
+    <n v="0.14354"/>
+    <s v="s/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="161"/>
+    <n v="7.0392260000000002"/>
+    <s v="MB/sec"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="162"/>
+    <n v="4021642.7586690001"/>
+    <s v="B/op"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="3"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="163"/>
+    <n v="0.41893200000000003"/>
+    <s v="s/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="164"/>
+    <n v="1.895143"/>
+    <s v="MB/sec"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="165"/>
+    <n v="2613082.4325410002"/>
+    <s v="B/op"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="4"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="166"/>
+    <n v="6.2419039999999999"/>
+    <s v="s/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="167"/>
+    <n v="5.1140350000000003"/>
+    <s v="MB/sec"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="168"/>
+    <n v="5612254.1842080001"/>
+    <s v="B/op"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="5"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="169"/>
+    <n v="0.58082800000000001"/>
+    <s v="s/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="170"/>
+    <n v="0.41174699999999997"/>
+    <s v="MB/sec"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="171"/>
+    <n v="6034651.3191550002"/>
+    <s v="B/op"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="avgt"/>
+    <n v="1"/>
+    <n v="3"/>
+    <x v="3"/>
+    <s v="NaN"/>
+    <s v="counts"/>
+    <x v="6"/>
+    <n v="200"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:I42" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="38">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="14"/>
+        <item x="17"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="25"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0">
+      <items count="173">
+        <item x="3"/>
+        <item x="130"/>
+        <item x="151"/>
+        <item x="101"/>
+        <item x="0"/>
+        <item x="56"/>
+        <item x="53"/>
+        <item x="43"/>
+        <item x="33"/>
+        <item x="18"/>
+        <item x="133"/>
+        <item x="154"/>
+        <item x="104"/>
+        <item x="80"/>
+        <item x="4"/>
+        <item x="59"/>
+        <item x="9"/>
+        <item x="160"/>
+        <item x="139"/>
+        <item x="112"/>
+        <item x="157"/>
+        <item x="136"/>
+        <item x="163"/>
+        <item x="142"/>
+        <item x="22"/>
+        <item x="10"/>
+        <item x="115"/>
+        <item x="107"/>
+        <item x="170"/>
+        <item x="35"/>
+        <item x="73"/>
+        <item x="45"/>
+        <item x="28"/>
+        <item x="161"/>
+        <item x="11"/>
+        <item x="20"/>
+        <item x="155"/>
+        <item x="164"/>
+        <item x="83"/>
+        <item x="92"/>
+        <item x="65"/>
+        <item x="167"/>
+        <item x="158"/>
+        <item x="125"/>
+        <item x="166"/>
+        <item x="169"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="145"/>
+        <item x="47"/>
+        <item x="120"/>
+        <item x="36"/>
+        <item x="90"/>
+        <item x="146"/>
+        <item x="94"/>
+        <item x="140"/>
+        <item x="152"/>
+        <item x="143"/>
+        <item x="134"/>
+        <item x="123"/>
+        <item x="121"/>
+        <item x="131"/>
+        <item x="128"/>
+        <item x="137"/>
+        <item x="126"/>
+        <item x="113"/>
+        <item x="97"/>
+        <item x="102"/>
+        <item x="64"/>
+        <item x="51"/>
+        <item x="119"/>
+        <item x="116"/>
+        <item x="105"/>
+        <item x="50"/>
+        <item x="111"/>
+        <item x="108"/>
+        <item x="41"/>
+        <item x="39"/>
+        <item x="110"/>
+        <item x="98"/>
+        <item x="118"/>
+        <item x="27"/>
+        <item x="25"/>
+        <item x="48"/>
+        <item x="23"/>
+        <item x="68"/>
+        <item x="57"/>
+        <item x="1"/>
+        <item x="62"/>
+        <item x="78"/>
+        <item x="86"/>
+        <item x="74"/>
+        <item x="29"/>
+        <item x="95"/>
+        <item x="14"/>
+        <item x="31"/>
+        <item x="70"/>
+        <item x="37"/>
+        <item x="7"/>
+        <item x="84"/>
+        <item x="124"/>
+        <item x="12"/>
+        <item x="60"/>
+        <item x="66"/>
+        <item x="5"/>
+        <item x="88"/>
+        <item x="16"/>
+        <item x="76"/>
+        <item x="55"/>
+        <item x="100"/>
+        <item x="82"/>
+        <item x="21"/>
+        <item x="93"/>
+        <item x="46"/>
+        <item x="72"/>
+        <item x="153"/>
+        <item x="132"/>
+        <item x="34"/>
+        <item x="103"/>
+        <item x="19"/>
+        <item x="54"/>
+        <item x="44"/>
+        <item x="81"/>
+        <item x="2"/>
+        <item x="156"/>
+        <item x="58"/>
+        <item x="162"/>
+        <item x="135"/>
+        <item x="165"/>
+        <item x="159"/>
+        <item x="141"/>
+        <item x="171"/>
+        <item x="106"/>
+        <item x="144"/>
+        <item x="138"/>
+        <item x="168"/>
+        <item x="114"/>
+        <item x="91"/>
+        <item x="150"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="147"/>
+        <item x="63"/>
+        <item x="117"/>
+        <item x="61"/>
+        <item x="109"/>
+        <item x="129"/>
+        <item x="26"/>
+        <item x="24"/>
+        <item x="122"/>
+        <item x="127"/>
+        <item x="79"/>
+        <item x="75"/>
+        <item x="52"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="77"/>
+        <item x="15"/>
+        <item x="13"/>
+        <item x="87"/>
+        <item x="42"/>
+        <item x="17"/>
+        <item x="69"/>
+        <item x="40"/>
+        <item x="85"/>
+        <item x="49"/>
+        <item x="71"/>
+        <item x="89"/>
+        <item x="99"/>
+        <item x="67"/>
+        <item x="38"/>
+        <item x="96"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="8">
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="38">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="7"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Score" fld="4" subtotal="average" baseField="0" baseItem="0" numFmtId="3"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="7" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -530,11 +3533,1018 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="74.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>12.348917</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.847585</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.32614799999999999</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.4780000000000002E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.493061</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4.0691230000000003</v>
+      </c>
+      <c r="H5" s="1">
+        <v>10.867979</v>
+      </c>
+      <c r="I5" s="1">
+        <v>4.851184428571429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1">
+        <v>214.60309799999999</v>
+      </c>
+      <c r="C6" s="1">
+        <v>151.671966</v>
+      </c>
+      <c r="D6" s="1">
+        <v>252.97874200000001</v>
+      </c>
+      <c r="E6" s="1">
+        <v>167.124291</v>
+      </c>
+      <c r="F6" s="1">
+        <v>231.10084599999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>188.10655299999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>142.75189800000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>192.61962771428571</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2865289706.6666598</v>
+      </c>
+      <c r="C7" s="1">
+        <v>373372917.33333302</v>
+      </c>
+      <c r="D7" s="1">
+        <v>126397114</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1441992.9316110001</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1205965056</v>
+      </c>
+      <c r="G7" s="1">
+        <v>902691330.66666698</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1704356048</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1025644880.7997531</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1">
+        <v>109.006416</v>
+      </c>
+      <c r="C8" s="1">
+        <v>141.49422799999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>215.26943199999999</v>
+      </c>
+      <c r="F8" s="1">
+        <v>205.764274</v>
+      </c>
+      <c r="G8" s="1">
+        <v>207.51893799999999</v>
+      </c>
+      <c r="H8" s="1">
+        <v>89.933480000000003</v>
+      </c>
+      <c r="I8" s="1">
+        <v>161.49779466666669</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1431655765.3333299</v>
+      </c>
+      <c r="C9" s="1">
+        <v>357913941.33333302</v>
+      </c>
+      <c r="D9" s="1">
+        <v>113515920</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1073741824</v>
+      </c>
+      <c r="G9" s="1">
+        <v>995483834.66666698</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1073741824</v>
+      </c>
+      <c r="I9" s="1">
+        <v>841008851.55555499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1">
+        <v>104.781159</v>
+      </c>
+      <c r="F10" s="1">
+        <v>260.352915</v>
+      </c>
+      <c r="H10" s="1">
+        <v>71.366212000000004</v>
+      </c>
+      <c r="I10" s="1">
+        <v>145.50009533333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1398889357.3333299</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1399379469.3333299</v>
+      </c>
+      <c r="H11" s="1">
+        <v>852062701.33333302</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1216777175.9999976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7.3211999999999999E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.13872599999999999</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7.4478000000000003E-2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>6.6186999999999996E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8.815075E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1115522.6666669999</v>
+      </c>
+      <c r="F13" s="1">
+        <v>734986.66666700004</v>
+      </c>
+      <c r="G13" s="1">
+        <v>356808</v>
+      </c>
+      <c r="H13" s="1">
+        <v>790456</v>
+      </c>
+      <c r="I13" s="1">
+        <v>749443.33333349996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>6</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1204</v>
+      </c>
+      <c r="C15" s="1">
+        <v>124</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>892</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>342</v>
+      </c>
+      <c r="I15" s="1">
+        <v>428.33333333333331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.060972</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.72462800000000005</v>
+      </c>
+      <c r="E16" s="1">
+        <v>9.9369999999999997E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8.1776599999999995</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6.7577449999999999</v>
+      </c>
+      <c r="H16" s="1">
+        <v>15.607682</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5.7231039999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="1">
+        <v>187.76323400000001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>232.55453199999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>162.48516699999999</v>
+      </c>
+      <c r="F17" s="1">
+        <v>249.59474800000001</v>
+      </c>
+      <c r="G17" s="1">
+        <v>224.14270099999999</v>
+      </c>
+      <c r="H17" s="1">
+        <v>190.35726299999999</v>
+      </c>
+      <c r="I17" s="1">
+        <v>207.81627416666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1">
+        <v>702380989.33333302</v>
+      </c>
+      <c r="D18" s="1">
+        <v>238473185.33333299</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2543165.132247</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2271984826.6666598</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1702164002.6666601</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3218664413.3333302</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1356035097.0775938</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1">
+        <v>271.12969800000002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>168.60404700000001</v>
+      </c>
+      <c r="F19" s="1">
+        <v>154.10527500000001</v>
+      </c>
+      <c r="G19" s="1">
+        <v>178.08927800000001</v>
+      </c>
+      <c r="H19" s="1">
+        <v>63.502901000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <v>167.08623979999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1014469648</v>
+      </c>
+      <c r="D20" s="1">
+        <v>176878352</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1409049938.6666601</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1357661544</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1073741824</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1006360261.3333321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="1">
+        <v>171.72878700000001</v>
+      </c>
+      <c r="F21" s="1">
+        <v>211.064358</v>
+      </c>
+      <c r="G21" s="1">
+        <v>257.36398800000001</v>
+      </c>
+      <c r="H21" s="1">
+        <v>117.540341</v>
+      </c>
+      <c r="I21" s="1">
+        <v>189.42436849999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1">
+        <v>657415784</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1932382944</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1948957421.3333299</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1987436466.6666601</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1631548153.9999976</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.29909000000000002</v>
+      </c>
+      <c r="G23" s="1">
+        <v>13.331913999999999</v>
+      </c>
+      <c r="I23" s="1">
+        <v>6.8155019999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1131802.6666669999</v>
+      </c>
+      <c r="G24" s="1">
+        <v>100325872</v>
+      </c>
+      <c r="I24" s="1">
+        <v>50728837.3333335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>6</v>
+      </c>
+      <c r="G25" s="1">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1">
+        <v>514</v>
+      </c>
+      <c r="D26" s="1">
+        <v>70</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1660</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1134</v>
+      </c>
+      <c r="H26" s="1">
+        <v>367</v>
+      </c>
+      <c r="I26" s="1">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>12.140936</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1.2615780000000001</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.25429400000000002</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4.1089999999999998E-3</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.3043420000000001</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2.2818320000000001</v>
+      </c>
+      <c r="H27" s="1">
+        <v>9.3611629999999995</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3.9440362857142861</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="1">
+        <v>31.322579999999999</v>
+      </c>
+      <c r="C28" s="1">
+        <v>50.811813000000001</v>
+      </c>
+      <c r="D28" s="1">
+        <v>83.178332999999995</v>
+      </c>
+      <c r="E28" s="1">
+        <v>69.226978000000003</v>
+      </c>
+      <c r="F28" s="1">
+        <v>102.943431</v>
+      </c>
+      <c r="G28" s="1">
+        <v>77.515338999999997</v>
+      </c>
+      <c r="H28" s="1">
+        <v>41.169626000000001</v>
+      </c>
+      <c r="I28" s="1">
+        <v>65.166871428571426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="1">
+        <v>415504338.66666698</v>
+      </c>
+      <c r="C29" s="1">
+        <v>94291544</v>
+      </c>
+      <c r="D29" s="1">
+        <v>31733069.466667</v>
+      </c>
+      <c r="E29" s="1">
+        <v>448900.00949600001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>303367330.66666698</v>
+      </c>
+      <c r="G29" s="1">
+        <v>226567597.33333299</v>
+      </c>
+      <c r="H29" s="1">
+        <v>426506885.33333302</v>
+      </c>
+      <c r="I29" s="1">
+        <v>214059952.21088043</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="1">
+        <v>26.697037000000002</v>
+      </c>
+      <c r="F30" s="1">
+        <v>114.948746</v>
+      </c>
+      <c r="G30" s="1">
+        <v>119.299997</v>
+      </c>
+      <c r="H30" s="1">
+        <v>34.951345000000003</v>
+      </c>
+      <c r="I30" s="1">
+        <v>73.974281250000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" s="1">
+        <v>357913941.33333302</v>
+      </c>
+      <c r="F31" s="1">
+        <v>357913941.33333302</v>
+      </c>
+      <c r="G31" s="1">
+        <v>357913941.33333302</v>
+      </c>
+      <c r="H31" s="1">
+        <v>356844573.33333302</v>
+      </c>
+      <c r="I31" s="1">
+        <v>357646599.33333302</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="1">
+        <v>230</v>
+      </c>
+      <c r="F33" s="1">
+        <v>98</v>
+      </c>
+      <c r="G33" s="1">
+        <v>73</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1">
+        <v>9.9887870000000003</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1.0257270000000001</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.20603399999999999</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3.6519999999999999E-3</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1.5634680000000001</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1.6864159999999999</v>
+      </c>
+      <c r="H34" s="1">
+        <v>9.8109610000000007</v>
+      </c>
+      <c r="I34" s="1">
+        <v>3.4692921428571433</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1">
+        <v>13.906731000000001</v>
+      </c>
+      <c r="C35" s="1">
+        <v>17.149979999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>25.002253</v>
+      </c>
+      <c r="E35" s="1">
+        <v>34.836277000000003</v>
+      </c>
+      <c r="F35" s="1">
+        <v>35.364241</v>
+      </c>
+      <c r="G35" s="1">
+        <v>24.918329</v>
+      </c>
+      <c r="H35" s="1">
+        <v>9.8735859999999995</v>
+      </c>
+      <c r="I35" s="1">
+        <v>23.007342428571427</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="1">
+        <v>153063904</v>
+      </c>
+      <c r="C36" s="1">
+        <v>24254273.333333001</v>
+      </c>
+      <c r="D36" s="1">
+        <v>8063188.7999999998</v>
+      </c>
+      <c r="E36" s="1">
+        <v>201093.57054300001</v>
+      </c>
+      <c r="F36" s="1">
+        <v>76920765.333333001</v>
+      </c>
+      <c r="G36" s="1">
+        <v>57265232</v>
+      </c>
+      <c r="H36" s="1">
+        <v>106953269.333333</v>
+      </c>
+      <c r="I36" s="1">
+        <v>60960246.624363147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="1">
+        <v>9.5463039999999992</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1.024851</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.21246399999999999</v>
+      </c>
+      <c r="E38" s="1">
+        <v>4.0010000000000002E-3</v>
+      </c>
+      <c r="F38" s="1">
+        <v>1.542122</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1.5825929999999999</v>
+      </c>
+      <c r="H38" s="1">
+        <v>9.7478990000000003</v>
+      </c>
+      <c r="I38" s="1">
+        <v>3.3800334285714286</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="1">
+        <v>8.2979819999999993</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4.2934559999999999</v>
+      </c>
+      <c r="D39" s="1">
+        <v>6.4915649999999996</v>
+      </c>
+      <c r="E39" s="1">
+        <v>22.075762000000001</v>
+      </c>
+      <c r="F39" s="1">
+        <v>9.3016129999999997</v>
+      </c>
+      <c r="G39" s="1">
+        <v>6.6948869999999996</v>
+      </c>
+      <c r="H39" s="1">
+        <v>2.513137</v>
+      </c>
+      <c r="I39" s="1">
+        <v>8.5240574285714299</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="1">
+        <v>87453800</v>
+      </c>
+      <c r="C40" s="1">
+        <v>6491746.6666670004</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2139134.9333330002</v>
+      </c>
+      <c r="E40" s="1">
+        <v>139263.23191199999</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20013984</v>
+      </c>
+      <c r="G40" s="1">
+        <v>14666898.666666999</v>
+      </c>
+      <c r="H40" s="1">
+        <v>27055858.666666999</v>
+      </c>
+      <c r="I40" s="1">
+        <v>22565812.30932086</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>0</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="1">
+        <v>258111089.52742866</v>
+      </c>
+      <c r="C42" s="1">
+        <v>107724143.14098768</v>
+      </c>
+      <c r="D42" s="1">
+        <v>26815424.012915578</v>
+      </c>
+      <c r="E42" s="1">
+        <v>238743.53257304995</v>
+      </c>
+      <c r="F42" s="1">
+        <v>287184552.06932783</v>
+      </c>
+      <c r="G42" s="1">
+        <v>218973057.71716481</v>
+      </c>
+      <c r="H42" s="1">
+        <v>309375881.75490427</v>
+      </c>
+      <c r="I42" s="1">
+        <v>189315269.18299004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="G205" sqref="G205:I207"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -609,7 +4619,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -627,7 +4637,7 @@
         <v>181.10994299999999</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -638,7 +4648,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
@@ -656,7 +4666,7 @@
         <v>17062.329589000001</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -667,7 +4677,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -682,10 +4692,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -717,7 +4727,7 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I6">
         <v>200</v>
@@ -725,7 +4735,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -743,10 +4753,10 @@
         <v>565.24033499999996</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I7">
         <v>200</v>
@@ -754,7 +4764,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -772,10 +4782,10 @@
         <v>1124863.7258039999</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I8">
         <v>200</v>
@@ -783,7 +4793,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -801,10 +4811,10 @@
         <v>6802.3105290000003</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I9">
         <v>200</v>
@@ -812,7 +4822,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -830,10 +4840,10 @@
         <v>3586995751.3752999</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I10">
         <v>200</v>
@@ -841,28 +4851,28 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
       </c>
       <c r="I11">
         <v>200</v>
@@ -870,7 +4880,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -885,13 +4895,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
         <v>18</v>
       </c>
-      <c r="G12" t="s">
-        <v>24</v>
-      </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I12">
         <v>200</v>
@@ -920,7 +4930,7 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I13">
         <v>200</v>
@@ -928,7 +4938,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -946,10 +4956,10 @@
         <v>372.09197499999999</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I14">
         <v>200</v>
@@ -957,7 +4967,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -975,10 +4985,10 @@
         <v>5297902.219149</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I15">
         <v>200</v>
@@ -986,7 +4996,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1004,10 +5014,10 @@
         <v>331.79752100000002</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I16">
         <v>200</v>
@@ -1015,7 +5025,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>10</v>
@@ -1033,10 +5043,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I17">
         <v>200</v>
@@ -1044,7 +5054,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>10</v>
@@ -1062,10 +5072,10 @@
         <v>2112.724346</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I18">
         <v>200</v>
@@ -1073,7 +5083,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>10</v>
@@ -1091,10 +5101,10 @@
         <v>12634751852.2139</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I19">
         <v>200</v>
@@ -1102,7 +5112,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
         <v>10</v>
@@ -1120,10 +5130,10 @@
         <v>0.75605</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I20">
         <v>200</v>
@@ -1131,7 +5141,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>10</v>
@@ -1149,10 +5159,10 @@
         <v>4722274.4555449998</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I21">
         <v>200</v>
@@ -1160,7 +5170,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1175,13 +5185,13 @@
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" t="s">
         <v>19</v>
-      </c>
-      <c r="H22" t="s">
-        <v>25</v>
       </c>
       <c r="I22">
         <v>200</v>
@@ -1189,7 +5199,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1204,13 +5214,13 @@
         <v>892</v>
       </c>
       <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
       <c r="H23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I23">
         <v>200</v>
@@ -1239,7 +5249,7 @@
         <v>11</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I24">
         <v>200</v>
@@ -1247,7 +5257,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1265,10 +5275,10 @@
         <v>193.54643100000001</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I25">
         <v>200</v>
@@ -1276,7 +5286,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1294,10 +5304,10 @@
         <v>4006044.3595949998</v>
       </c>
       <c r="G26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I26">
         <v>200</v>
@@ -1305,7 +5315,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
         <v>10</v>
@@ -1323,10 +5333,10 @@
         <v>4471.0838290000002</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I27">
         <v>200</v>
@@ -1334,7 +5344,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1352,10 +5362,10 @@
         <v>11309742165.862301</v>
       </c>
       <c r="G28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I28">
         <v>200</v>
@@ -1363,7 +5373,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -1378,13 +5388,13 @@
         <v>1</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H29" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I29">
         <v>200</v>
@@ -1392,7 +5402,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>10</v>
@@ -1407,13 +5417,13 @@
         <v>124</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" t="s">
         <v>18</v>
       </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
       <c r="H30" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I30">
         <v>200</v>
@@ -1442,7 +5452,7 @@
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I31">
         <v>200</v>
@@ -1450,7 +5460,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1468,10 +5478,10 @@
         <v>31.446674999999999</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H32" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I32">
         <v>200</v>
@@ -1479,7 +5489,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
         <v>10</v>
@@ -1497,10 +5507,10 @@
         <v>2602422.5511850002</v>
       </c>
       <c r="G33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I33">
         <v>200</v>
@@ -1508,7 +5518,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1526,10 +5536,10 @@
         <v>257.94492500000001</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I34">
         <v>200</v>
@@ -1537,7 +5547,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>10</v>
@@ -1555,10 +5565,10 @@
         <v>1071038731.68235</v>
       </c>
       <c r="G35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I35">
         <v>200</v>
@@ -1566,7 +5576,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
@@ -1584,10 +5594,10 @@
         <v>2.3533439999999999</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H36" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I36">
         <v>200</v>
@@ -1595,7 +5605,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>10</v>
@@ -1613,10 +5623,10 @@
         <v>11274289.884218</v>
       </c>
       <c r="G37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I37">
         <v>200</v>
@@ -1624,7 +5634,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1639,13 +5649,13 @@
         <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I38">
         <v>200</v>
@@ -1653,7 +5663,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1668,13 +5678,13 @@
         <v>6</v>
       </c>
       <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
         <v>18</v>
       </c>
-      <c r="G39" t="s">
-        <v>24</v>
-      </c>
       <c r="H39" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I39">
         <v>200</v>
@@ -1703,7 +5713,7 @@
         <v>11</v>
       </c>
       <c r="H40" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I40">
         <v>200</v>
@@ -1711,7 +5721,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
         <v>10</v>
@@ -1729,10 +5739,10 @@
         <v>460.64032400000002</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H41" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I41">
         <v>200</v>
@@ -1740,7 +5750,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>10</v>
@@ -1758,10 +5768,10 @@
         <v>5596800.8778449995</v>
       </c>
       <c r="G42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I42">
         <v>200</v>
@@ -1769,7 +5779,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1787,10 +5797,10 @@
         <v>999.04217900000003</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H43" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I43">
         <v>200</v>
@@ -1798,7 +5808,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1816,10 +5826,10 @@
         <v>11309742165.862301</v>
       </c>
       <c r="G44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I44">
         <v>200</v>
@@ -1827,7 +5837,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1845,10 +5855,10 @@
         <v>226.58755500000001</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H45" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I45">
         <v>200</v>
@@ -1856,7 +5866,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -1874,10 +5884,10 @@
         <v>25676528.214636002</v>
       </c>
       <c r="G46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I46">
         <v>200</v>
@@ -1885,7 +5895,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B47" t="s">
         <v>10</v>
@@ -1903,10 +5913,10 @@
         <v>2.0696110000000001</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H47" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I47">
         <v>200</v>
@@ -1914,7 +5924,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -1932,10 +5942,10 @@
         <v>32193141.635196</v>
       </c>
       <c r="G48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I48">
         <v>200</v>
@@ -1943,7 +5953,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B49" t="s">
         <v>10</v>
@@ -1958,13 +5968,13 @@
         <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I49">
         <v>200</v>
@@ -1972,7 +5982,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -1987,13 +5997,13 @@
         <v>1204</v>
       </c>
       <c r="F50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50" t="s">
         <v>18</v>
       </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
       <c r="H50" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I50">
         <v>200</v>
@@ -2022,7 +6032,7 @@
         <v>11</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I51" s="2">
         <v>200</v>
@@ -2030,7 +6040,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>10</v>
@@ -2048,10 +6058,10 @@
         <v>9.6011860000000002</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I52" s="2">
         <v>200</v>
@@ -2059,7 +6069,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>10</v>
@@ -2077,10 +6087,10 @@
         <v>6033412.0259670001</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I53" s="2">
         <v>200</v>
@@ -2088,7 +6098,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B54" t="s">
         <v>10</v>
@@ -2106,10 +6116,10 @@
         <v>5.9827199999999996</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H54" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I54">
         <v>200</v>
@@ -2117,7 +6127,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
@@ -2135,10 +6145,10 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I55">
         <v>200</v>
@@ -2146,7 +6156,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
         <v>10</v>
@@ -2164,10 +6174,10 @@
         <v>4.214601</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H56" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I56">
         <v>200</v>
@@ -2175,7 +6185,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B57" t="s">
         <v>10</v>
@@ -2193,10 +6203,10 @@
         <v>6971045.6280340003</v>
       </c>
       <c r="G57" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I57">
         <v>200</v>
@@ -2204,7 +6214,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
         <v>10</v>
@@ -2222,10 +6232,10 @@
         <v>0.176591</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I58">
         <v>200</v>
@@ -2233,7 +6243,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B59" t="s">
         <v>10</v>
@@ -2251,10 +6261,10 @@
         <v>2155435.705207</v>
       </c>
       <c r="G59" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I59">
         <v>200</v>
@@ -2262,7 +6272,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -2277,13 +6287,13 @@
         <v>6</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I60">
         <v>200</v>
@@ -2291,7 +6301,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B61" t="s">
         <v>10</v>
@@ -2306,13 +6316,13 @@
         <v>342</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
         <v>18</v>
       </c>
-      <c r="G61" t="s">
-        <v>24</v>
-      </c>
       <c r="H61" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I61">
         <v>200</v>
@@ -2320,7 +6330,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
         <v>10</v>
@@ -2349,7 +6359,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s">
         <v>10</v>
@@ -2367,7 +6377,7 @@
         <v>53.222304999999999</v>
       </c>
       <c r="G63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
@@ -2378,7 +6388,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B64" t="s">
         <v>10</v>
@@ -2396,7 +6406,7 @@
         <v>38485.119781000001</v>
       </c>
       <c r="G64" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
@@ -2407,7 +6417,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B65" t="s">
         <v>10</v>
@@ -2422,10 +6432,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -2436,7 +6446,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
         <v>10</v>
@@ -2457,7 +6467,7 @@
         <v>11</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I66">
         <v>200</v>
@@ -2465,7 +6475,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
         <v>10</v>
@@ -2483,10 +6493,10 @@
         <v>141.063804</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I67">
         <v>200</v>
@@ -2494,7 +6504,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
         <v>10</v>
@@ -2512,10 +6522,10 @@
         <v>2229939.945938</v>
       </c>
       <c r="G68" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I68">
         <v>200</v>
@@ -2523,7 +6533,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B69" t="s">
         <v>10</v>
@@ -2541,10 +6551,10 @@
         <v>5327.7284980000004</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I69">
         <v>200</v>
@@ -2552,7 +6562,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B70" t="s">
         <v>10</v>
@@ -2570,10 +6580,10 @@
         <v>5589188698.2395496</v>
       </c>
       <c r="G70" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I70">
         <v>200</v>
@@ -2581,7 +6591,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -2596,13 +6606,13 @@
         <v>1</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G71" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I71">
         <v>200</v>
@@ -2610,7 +6620,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B72" t="s">
         <v>10</v>
@@ -2625,13 +6635,13 @@
         <v>70</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72" t="s">
         <v>18</v>
       </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
       <c r="H72" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I72">
         <v>200</v>
@@ -2639,7 +6649,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
         <v>10</v>
@@ -2660,7 +6670,7 @@
         <v>11</v>
       </c>
       <c r="H73" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I73">
         <v>200</v>
@@ -2668,7 +6678,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B74" t="s">
         <v>10</v>
@@ -2686,10 +6696,10 @@
         <v>165.51910000000001</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I74">
         <v>200</v>
@@ -2697,7 +6707,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B75" t="s">
         <v>10</v>
@@ -2715,10 +6725,10 @@
         <v>5265119.162982</v>
       </c>
       <c r="G75" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I75">
         <v>200</v>
@@ -2726,7 +6736,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B76" t="s">
         <v>10</v>
@@ -2744,10 +6754,10 @@
         <v>1109.5396040000001</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H76" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I76">
         <v>200</v>
@@ -2755,7 +6765,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B77" t="s">
         <v>10</v>
@@ -2773,10 +6783,10 @@
         <v>10595419415.276699</v>
       </c>
       <c r="G77" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I77">
         <v>200</v>
@@ -2784,7 +6794,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B78" t="s">
         <v>10</v>
@@ -2802,10 +6812,10 @@
         <v>804.26397699999995</v>
       </c>
       <c r="G78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H78" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I78">
         <v>200</v>
@@ -2813,7 +6823,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -2831,10 +6841,10 @@
         <v>8419212953.0149498</v>
       </c>
       <c r="G79" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I79">
         <v>200</v>
@@ -2842,7 +6852,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B80" t="s">
         <v>10</v>
@@ -2857,13 +6867,13 @@
         <v>6</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G80" t="s">
+        <v>16</v>
+      </c>
+      <c r="H80" t="s">
         <v>19</v>
-      </c>
-      <c r="H80" t="s">
-        <v>25</v>
       </c>
       <c r="I80">
         <v>200</v>
@@ -2871,7 +6881,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
@@ -2886,13 +6896,13 @@
         <v>1660</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
         <v>18</v>
       </c>
-      <c r="G81" t="s">
-        <v>24</v>
-      </c>
       <c r="H81" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I81">
         <v>200</v>
@@ -2900,7 +6910,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
         <v>10</v>
@@ -2921,7 +6931,7 @@
         <v>11</v>
       </c>
       <c r="H82" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I82">
         <v>200</v>
@@ -2929,7 +6939,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B83" t="s">
         <v>10</v>
@@ -2947,10 +6957,10 @@
         <v>69.627909000000002</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H83" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I83">
         <v>200</v>
@@ -2958,7 +6968,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B84" t="s">
         <v>10</v>
@@ -2976,10 +6986,10 @@
         <v>3995300.7963049999</v>
       </c>
       <c r="G84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I84">
         <v>200</v>
@@ -2987,7 +6997,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B85" t="s">
         <v>10</v>
@@ -3005,10 +7015,10 @@
         <v>281.33994999999999</v>
       </c>
       <c r="G85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H85" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I85">
         <v>200</v>
@@ -3016,7 +7026,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B86" t="s">
         <v>10</v>
@@ -3034,10 +7044,10 @@
         <v>1086386486.71696</v>
       </c>
       <c r="G86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I86">
         <v>200</v>
@@ -3045,7 +7055,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -3063,10 +7073,10 @@
         <v>5426.4673220000004</v>
       </c>
       <c r="G87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H87" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I87">
         <v>200</v>
@@ -3074,7 +7084,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B88" t="s">
         <v>10</v>
@@ -3092,10 +7102,10 @@
         <v>20773717238.032001</v>
       </c>
       <c r="G88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I88">
         <v>200</v>
@@ -3103,7 +7113,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B89" t="s">
         <v>10</v>
@@ -3121,10 +7131,10 @@
         <v>5.8234139999999996</v>
       </c>
       <c r="G89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H89" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I89">
         <v>200</v>
@@ -3132,7 +7142,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B90" t="s">
         <v>10</v>
@@ -3150,10 +7160,10 @@
         <v>22338961.976771999</v>
       </c>
       <c r="G90" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I90">
         <v>200</v>
@@ -3161,7 +7171,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B91" t="s">
         <v>10</v>
@@ -3176,13 +7186,13 @@
         <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I91">
         <v>200</v>
@@ -3190,7 +7200,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B92" t="s">
         <v>10</v>
@@ -3205,13 +7215,13 @@
         <v>514</v>
       </c>
       <c r="F92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
         <v>18</v>
       </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
       <c r="H92" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I92">
         <v>200</v>
@@ -3219,7 +7229,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
         <v>10</v>
@@ -3240,7 +7250,7 @@
         <v>11</v>
       </c>
       <c r="H93" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I93">
         <v>200</v>
@@ -3248,7 +7258,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B94" t="s">
         <v>10</v>
@@ -3266,10 +7276,10 @@
         <v>279.24863800000003</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H94" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I94">
         <v>200</v>
@@ -3277,7 +7287,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B95" t="s">
         <v>10</v>
@@ -3295,10 +7305,10 @@
         <v>2620291.543273</v>
       </c>
       <c r="G95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I95">
         <v>200</v>
@@ -3306,7 +7316,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B96" t="s">
         <v>10</v>
@@ -3324,10 +7334,10 @@
         <v>1131.5106410000001</v>
       </c>
       <c r="G96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H96" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I96">
         <v>200</v>
@@ -3335,7 +7345,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B97" t="s">
         <v>10</v>
@@ -3353,10 +7363,10 @@
         <v>8971594727.6088295</v>
       </c>
       <c r="G97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I97">
         <v>200</v>
@@ -3364,7 +7374,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B98" t="s">
         <v>10</v>
@@ -3382,10 +7392,10 @@
         <v>1358.6199819999999</v>
       </c>
       <c r="G98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H98" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I98">
         <v>200</v>
@@ -3393,7 +7403,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B99" t="s">
         <v>10</v>
@@ -3411,10 +7421,10 @@
         <v>9475370478.4805908</v>
       </c>
       <c r="G99" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I99">
         <v>200</v>
@@ -3422,7 +7432,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B100" t="s">
         <v>10</v>
@@ -3440,10 +7450,10 @@
         <v>211.347385</v>
       </c>
       <c r="G100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H100" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I100">
         <v>200</v>
@@ -3451,7 +7461,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B101" t="s">
         <v>10</v>
@@ -3469,10 +7479,10 @@
         <v>1580162548.1875999</v>
       </c>
       <c r="G101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I101">
         <v>200</v>
@@ -3480,7 +7490,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B102" t="s">
         <v>10</v>
@@ -3495,13 +7505,13 @@
         <v>7</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G102" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H102" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I102">
         <v>200</v>
@@ -3509,7 +7519,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -3524,13 +7534,13 @@
         <v>1134</v>
       </c>
       <c r="F103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" t="s">
         <v>18</v>
       </c>
-      <c r="G103" t="s">
-        <v>24</v>
-      </c>
       <c r="H103" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I103">
         <v>200</v>
@@ -3538,7 +7548,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>10</v>
@@ -3559,7 +7569,7 @@
         <v>11</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I104" s="2">
         <v>200</v>
@@ -3567,7 +7577,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>10</v>
@@ -3585,10 +7595,10 @@
         <v>7.5061559999999998</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I105" s="2">
         <v>200</v>
@@ -3596,7 +7606,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>10</v>
@@ -3614,10 +7624,10 @@
         <v>6032937.1277820002</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I106" s="2">
         <v>200</v>
@@ -3625,7 +7635,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B107" t="s">
         <v>10</v>
@@ -3643,10 +7653,10 @@
         <v>2.385278</v>
       </c>
       <c r="G107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I107">
         <v>200</v>
@@ -3654,7 +7664,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B108" t="s">
         <v>10</v>
@@ -3672,10 +7682,10 @@
         <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I108">
         <v>200</v>
@@ -3683,7 +7693,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B109" t="s">
         <v>10</v>
@@ -3701,10 +7711,10 @@
         <v>4.4160820000000003</v>
       </c>
       <c r="G109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H109" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I109">
         <v>200</v>
@@ -3712,7 +7722,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B110" t="s">
         <v>10</v>
@@ -3730,10 +7740,10 @@
         <v>2984180.3028699998</v>
       </c>
       <c r="G110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I110">
         <v>200</v>
@@ -3741,7 +7751,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B111" t="s">
         <v>10</v>
@@ -3756,13 +7766,13 @@
         <v>3</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G111" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H111" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I111">
         <v>200</v>
@@ -3770,7 +7780,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B112" t="s">
         <v>10</v>
@@ -3785,13 +7795,13 @@
         <v>367</v>
       </c>
       <c r="F112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
         <v>18</v>
       </c>
-      <c r="G112" t="s">
-        <v>24</v>
-      </c>
       <c r="H112" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I112">
         <v>200</v>
@@ -3799,7 +7809,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B113" t="s">
         <v>10</v>
@@ -3828,7 +7838,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B114" t="s">
         <v>10</v>
@@ -3846,7 +7856,7 @@
         <v>61.028354999999998</v>
       </c>
       <c r="G114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H114" t="s">
         <v>12</v>
@@ -3857,7 +7867,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
         <v>10</v>
@@ -3875,7 +7885,7 @@
         <v>14904.096449999999</v>
       </c>
       <c r="G115" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
         <v>12</v>
@@ -3886,7 +7896,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B116" t="s">
         <v>10</v>
@@ -3901,10 +7911,10 @@
         <v>0</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G116" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H116" t="s">
         <v>12</v>
@@ -3915,7 +7925,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B117" t="s">
         <v>10</v>
@@ -3936,7 +7946,7 @@
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I117">
         <v>200</v>
@@ -3944,7 +7954,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B118" t="s">
         <v>10</v>
@@ -3962,10 +7972,10 @@
         <v>80.555289999999999</v>
       </c>
       <c r="G118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I118">
         <v>200</v>
@@ -3973,7 +7983,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
@@ -3991,10 +8001,10 @@
         <v>898566.24464199995</v>
       </c>
       <c r="G119" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I119">
         <v>200</v>
@@ -4002,7 +8012,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B120" t="s">
         <v>10</v>
@@ -4017,13 +8027,13 @@
         <v>0</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G120" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H120" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I120">
         <v>200</v>
@@ -4031,7 +8041,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B121" t="s">
         <v>10</v>
@@ -4052,7 +8062,7 @@
         <v>11</v>
       </c>
       <c r="H121" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I121">
         <v>200</v>
@@ -4060,7 +8070,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B122" t="s">
         <v>10</v>
@@ -4078,10 +8088,10 @@
         <v>94.370519000000002</v>
       </c>
       <c r="G122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H122" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I122">
         <v>200</v>
@@ -4089,7 +8099,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B123" t="s">
         <v>10</v>
@@ -4107,10 +8117,10 @@
         <v>5293434.7908439999</v>
       </c>
       <c r="G123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I123">
         <v>200</v>
@@ -4118,7 +8128,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B124" t="s">
         <v>10</v>
@@ -4136,10 +8146,10 @@
         <v>3632.2716879999998</v>
       </c>
       <c r="G124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H124" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I124">
         <v>200</v>
@@ -4147,7 +8157,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B125" t="s">
         <v>10</v>
@@ -4165,10 +8175,10 @@
         <v>11309742165.862301</v>
       </c>
       <c r="G125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I125">
         <v>200</v>
@@ -4176,7 +8186,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B126" t="s">
         <v>10</v>
@@ -4191,13 +8201,13 @@
         <v>1</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G126" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s">
         <v>19</v>
-      </c>
-      <c r="H126" t="s">
-        <v>25</v>
       </c>
       <c r="I126">
         <v>200</v>
@@ -4205,7 +8215,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B127" t="s">
         <v>10</v>
@@ -4220,13 +8230,13 @@
         <v>98</v>
       </c>
       <c r="F127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G127" t="s">
         <v>18</v>
       </c>
-      <c r="G127" t="s">
-        <v>24</v>
-      </c>
       <c r="H127" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I127">
         <v>200</v>
@@ -4234,7 +8244,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B128" t="s">
         <v>10</v>
@@ -4255,7 +8265,7 @@
         <v>11</v>
       </c>
       <c r="H128" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I128">
         <v>200</v>
@@ -4263,7 +8273,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B129" t="s">
         <v>10</v>
@@ -4281,10 +8291,10 @@
         <v>6.2958509999999999</v>
       </c>
       <c r="G129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H129" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I129">
         <v>200</v>
@@ -4292,7 +8302,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B130" t="s">
         <v>10</v>
@@ -4310,10 +8320,10 @@
         <v>3976053.0081330002</v>
       </c>
       <c r="G130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I130">
         <v>200</v>
@@ -4321,7 +8331,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B131" t="s">
         <v>10</v>
@@ -4336,13 +8346,13 @@
         <v>0</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H131" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I131">
         <v>200</v>
@@ -4350,7 +8360,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B132" t="s">
         <v>10</v>
@@ -4371,7 +8381,7 @@
         <v>11</v>
       </c>
       <c r="H132" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I132">
         <v>200</v>
@@ -4379,7 +8389,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s">
         <v>10</v>
@@ -4397,10 +8407,10 @@
         <v>37.202379000000001</v>
       </c>
       <c r="G133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H133" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I133">
         <v>200</v>
@@ -4408,7 +8418,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B134" t="s">
         <v>10</v>
@@ -4426,10 +8436,10 @@
         <v>2597115.404106</v>
       </c>
       <c r="G134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I134">
         <v>200</v>
@@ -4437,7 +8447,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
@@ -4455,10 +8465,10 @@
         <v>3769.7671140000002</v>
       </c>
       <c r="G135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H135" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I135">
         <v>200</v>
@@ -4466,7 +8476,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B136" t="s">
         <v>10</v>
@@ -4484,10 +8494,10 @@
         <v>11309742165.862301</v>
       </c>
       <c r="G136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I136">
         <v>200</v>
@@ -4495,7 +8505,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B137" t="s">
         <v>10</v>
@@ -4510,13 +8520,13 @@
         <v>1</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G137" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H137" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I137">
         <v>200</v>
@@ -4524,7 +8534,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B138" t="s">
         <v>10</v>
@@ -4539,13 +8549,13 @@
         <v>73</v>
       </c>
       <c r="F138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G138" t="s">
         <v>18</v>
       </c>
-      <c r="G138" t="s">
-        <v>24</v>
-      </c>
       <c r="H138" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I138">
         <v>200</v>
@@ -4553,7 +8563,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B139" t="s">
         <v>10</v>
@@ -4574,7 +8584,7 @@
         <v>11</v>
       </c>
       <c r="H139" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I139">
         <v>200</v>
@@ -4582,7 +8592,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B140" t="s">
         <v>10</v>
@@ -4600,10 +8610,10 @@
         <v>5.6635580000000001</v>
       </c>
       <c r="G140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H140" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I140">
         <v>200</v>
@@ -4611,7 +8621,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B141" t="s">
         <v>10</v>
@@ -4629,10 +8639,10 @@
         <v>5591232.4221449997</v>
       </c>
       <c r="G141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I141">
         <v>200</v>
@@ -4640,7 +8650,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B142" t="s">
         <v>10</v>
@@ -4658,10 +8668,10 @@
         <v>843.60112200000003</v>
       </c>
       <c r="G142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H142" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I142">
         <v>200</v>
@@ -4669,7 +8679,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B143" t="s">
         <v>10</v>
@@ -4687,10 +8697,10 @@
         <v>11309742165.862301</v>
       </c>
       <c r="G143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I143">
         <v>200</v>
@@ -4698,7 +8708,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B144" t="s">
         <v>10</v>
@@ -4713,13 +8723,13 @@
         <v>1</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G144" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H144" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I144">
         <v>200</v>
@@ -4727,7 +8737,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B145" t="s">
         <v>10</v>
@@ -4742,13 +8752,13 @@
         <v>230</v>
       </c>
       <c r="F145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
         <v>18</v>
       </c>
-      <c r="G145" t="s">
-        <v>24</v>
-      </c>
       <c r="H145" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I145">
         <v>200</v>
@@ -4756,7 +8766,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>10</v>
@@ -4777,7 +8787,7 @@
         <v>11</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I146" s="2">
         <v>200</v>
@@ -4785,7 +8795,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>10</v>
@@ -4803,10 +8813,10 @@
         <v>11.275504</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I147" s="2">
         <v>200</v>
@@ -4814,7 +8824,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>10</v>
@@ -4832,10 +8842,10 @@
         <v>6029149.0944670001</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I148" s="2">
         <v>200</v>
@@ -4843,7 +8853,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B149" t="s">
         <v>10</v>
@@ -4861,10 +8871,10 @@
         <v>1104.429449</v>
       </c>
       <c r="G149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H149" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I149">
         <v>200</v>
@@ -4872,7 +8882,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B150" t="s">
         <v>10</v>
@@ -4890,10 +8900,10 @@
         <v>11275951148.068001</v>
       </c>
       <c r="G150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H150" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I150">
         <v>200</v>
@@ -4901,7 +8911,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -4916,13 +8926,13 @@
         <v>1</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G151" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H151" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I151">
         <v>200</v>
@@ -4930,7 +8940,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B152" t="s">
         <v>10</v>
@@ -4945,13 +8955,13 @@
         <v>3</v>
       </c>
       <c r="F152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G152" t="s">
         <v>18</v>
       </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
       <c r="H152" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I152">
         <v>200</v>
@@ -4959,7 +8969,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B153" t="s">
         <v>10</v>
@@ -4988,7 +8998,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B154" t="s">
         <v>10</v>
@@ -5006,7 +9016,7 @@
         <v>11.6686</v>
       </c>
       <c r="G154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H154" t="s">
         <v>12</v>
@@ -5017,7 +9027,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B155" t="s">
         <v>10</v>
@@ -5035,7 +9045,7 @@
         <v>12186.540723</v>
       </c>
       <c r="G155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
         <v>12</v>
@@ -5046,7 +9056,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B156" t="s">
         <v>10</v>
@@ -5061,10 +9071,10 @@
         <v>0</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G156" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H156" t="s">
         <v>12</v>
@@ -5075,7 +9085,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B157" t="s">
         <v>10</v>
@@ -5096,7 +9106,7 @@
         <v>11</v>
       </c>
       <c r="H157" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I157">
         <v>200</v>
@@ -5104,7 +9114,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B158" t="s">
         <v>10</v>
@@ -5122,10 +9132,10 @@
         <v>8.3821519999999996</v>
       </c>
       <c r="G158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H158" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I158">
         <v>200</v>
@@ -5133,7 +9143,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B159" t="s">
         <v>10</v>
@@ -5151,10 +9161,10 @@
         <v>897475.70929000003</v>
       </c>
       <c r="G159" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I159">
         <v>200</v>
@@ -5162,7 +9172,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B160" t="s">
         <v>10</v>
@@ -5177,13 +9187,13 @@
         <v>0</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G160" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H160" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I160">
         <v>200</v>
@@ -5191,7 +9201,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B161" t="s">
         <v>10</v>
@@ -5212,7 +9222,7 @@
         <v>11</v>
       </c>
       <c r="H161" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I161">
         <v>200</v>
@@ -5220,7 +9230,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B162" t="s">
         <v>10</v>
@@ -5238,10 +9248,10 @@
         <v>3.3150729999999999</v>
       </c>
       <c r="G162" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H162" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I162">
         <v>200</v>
@@ -5249,7 +9259,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B163" t="s">
         <v>10</v>
@@ -5267,10 +9277,10 @@
         <v>5268547.9537340002</v>
       </c>
       <c r="G163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I163">
         <v>200</v>
@@ -5278,7 +9288,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B164" t="s">
         <v>10</v>
@@ -5293,13 +9303,13 @@
         <v>0</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G164" t="s">
+        <v>16</v>
+      </c>
+      <c r="H164" t="s">
         <v>19</v>
-      </c>
-      <c r="H164" t="s">
-        <v>25</v>
       </c>
       <c r="I164">
         <v>200</v>
@@ -5307,7 +9317,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
@@ -5328,7 +9338,7 @@
         <v>11</v>
       </c>
       <c r="H165" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I165">
         <v>200</v>
@@ -5336,7 +9346,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B166" t="s">
         <v>10</v>
@@ -5354,10 +9364,10 @@
         <v>39.055413999999999</v>
       </c>
       <c r="G166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H166" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I166">
         <v>200</v>
@@ -5365,7 +9375,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -5383,10 +9393,10 @@
         <v>3991194.3743500002</v>
       </c>
       <c r="G167" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H167" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I167">
         <v>200</v>
@@ -5394,7 +9404,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B168" t="s">
         <v>10</v>
@@ -5409,13 +9419,13 @@
         <v>0</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G168" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H168" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I168">
         <v>200</v>
@@ -5423,7 +9433,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B169" t="s">
         <v>10</v>
@@ -5444,7 +9454,7 @@
         <v>11</v>
       </c>
       <c r="H169" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I169">
         <v>200</v>
@@ -5452,7 +9462,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B170" t="s">
         <v>10</v>
@@ -5470,10 +9480,10 @@
         <v>1.7917749999999999</v>
       </c>
       <c r="G170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H170" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I170">
         <v>200</v>
@@ -5481,7 +9491,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B171" t="s">
         <v>10</v>
@@ -5499,10 +9509,10 @@
         <v>2642839.155237</v>
       </c>
       <c r="G171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H171" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I171">
         <v>200</v>
@@ -5510,7 +9520,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B172" t="s">
         <v>10</v>
@@ -5525,13 +9535,13 @@
         <v>0</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G172" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H172" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I172">
         <v>200</v>
@@ -5539,7 +9549,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B173" t="s">
         <v>10</v>
@@ -5560,7 +9570,7 @@
         <v>11</v>
       </c>
       <c r="H173" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I173">
         <v>200</v>
@@ -5568,7 +9578,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B174" t="s">
         <v>10</v>
@@ -5586,10 +9596,10 @@
         <v>5.8602860000000003</v>
       </c>
       <c r="G174" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H174" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I174">
         <v>200</v>
@@ -5597,7 +9607,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B175" t="s">
         <v>10</v>
@@ -5615,10 +9625,10 @@
         <v>5609972.4947530003</v>
       </c>
       <c r="G175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I175">
         <v>200</v>
@@ -5626,7 +9636,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B176" t="s">
         <v>10</v>
@@ -5641,13 +9651,13 @@
         <v>0</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G176" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H176" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I176">
         <v>200</v>
@@ -5655,7 +9665,7 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>10</v>
@@ -5676,7 +9686,7 @@
         <v>11</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I177" s="2">
         <v>200</v>
@@ -5684,7 +9694,7 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>10</v>
@@ -5702,10 +9712,10 @@
         <v>3.3580510000000001</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I178" s="2">
         <v>200</v>
@@ -5713,7 +9723,7 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>10</v>
@@ -5731,10 +9741,10 @@
         <v>6026041.0299079996</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I179" s="2">
         <v>200</v>
@@ -5742,7 +9752,7 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B180" t="s">
         <v>10</v>
@@ -5757,13 +9767,13 @@
         <v>0</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G180" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H180" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I180">
         <v>200</v>
@@ -5771,7 +9781,7 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
@@ -5818,7 +9828,7 @@
         <v>4.3167590000000002</v>
       </c>
       <c r="G182" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H182" t="s">
         <v>12</v>
@@ -5847,7 +9857,7 @@
         <v>13904.097233</v>
       </c>
       <c r="G183" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H183" t="s">
         <v>12</v>
@@ -5873,10 +9883,10 @@
         <v>0</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G184" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H184" t="s">
         <v>12</v>
@@ -5887,7 +9897,7 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B185" t="s">
         <v>10</v>
@@ -5908,7 +9918,7 @@
         <v>11</v>
       </c>
       <c r="H185" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I185">
         <v>200</v>
@@ -5934,10 +9944,10 @@
         <v>1.455436</v>
       </c>
       <c r="G186" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H186" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I186">
         <v>200</v>
@@ -5963,10 +9973,10 @@
         <v>897400.52703400003</v>
       </c>
       <c r="G187" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H187" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I187">
         <v>200</v>
@@ -5989,13 +9999,13 @@
         <v>0</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G188" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H188" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I188">
         <v>200</v>
@@ -6003,7 +10013,7 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B189" t="s">
         <v>10</v>
@@ -6024,7 +10034,7 @@
         <v>11</v>
       </c>
       <c r="H189" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I189">
         <v>200</v>
@@ -6050,10 +10060,10 @@
         <v>3.7527080000000002</v>
       </c>
       <c r="G190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H190" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I190">
         <v>200</v>
@@ -6079,10 +10089,10 @@
         <v>5326531.8410999998</v>
       </c>
       <c r="G191" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H191" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I191">
         <v>200</v>
@@ -6105,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G192" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s">
         <v>19</v>
-      </c>
-      <c r="H192" t="s">
-        <v>25</v>
       </c>
       <c r="I192">
         <v>200</v>
@@ -6119,7 +10129,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B193" t="s">
         <v>10</v>
@@ -6140,7 +10150,7 @@
         <v>11</v>
       </c>
       <c r="H193" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I193">
         <v>200</v>
@@ -6166,10 +10176,10 @@
         <v>7.0392260000000002</v>
       </c>
       <c r="G194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H194" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I194">
         <v>200</v>
@@ -6195,10 +10205,10 @@
         <v>4021642.7586690001</v>
       </c>
       <c r="G195" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I195">
         <v>200</v>
@@ -6221,13 +10231,13 @@
         <v>0</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G196" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H196" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I196">
         <v>200</v>
@@ -6235,7 +10245,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
@@ -6256,7 +10266,7 @@
         <v>11</v>
       </c>
       <c r="H197" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I197">
         <v>200</v>
@@ -6282,10 +10292,10 @@
         <v>1.895143</v>
       </c>
       <c r="G198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H198" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I198">
         <v>200</v>
@@ -6311,10 +10321,10 @@
         <v>2613082.4325410002</v>
       </c>
       <c r="G199" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I199">
         <v>200</v>
@@ -6337,13 +10347,13 @@
         <v>0</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G200" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H200" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I200">
         <v>200</v>
@@ -6351,7 +10361,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B201" t="s">
         <v>10</v>
@@ -6372,7 +10382,7 @@
         <v>11</v>
       </c>
       <c r="H201" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I201">
         <v>200</v>
@@ -6398,10 +10408,10 @@
         <v>5.1140350000000003</v>
       </c>
       <c r="G202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H202" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I202">
         <v>200</v>
@@ -6427,10 +10437,10 @@
         <v>5612254.1842080001</v>
       </c>
       <c r="G203" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H203" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I203">
         <v>200</v>
@@ -6453,13 +10463,13 @@
         <v>0</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G204" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H204" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="I204">
         <v>200</v>
@@ -6467,7 +10477,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>10</v>
@@ -6488,7 +10498,7 @@
         <v>11</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I205" s="2">
         <v>200</v>
@@ -6514,10 +10524,10 @@
         <v>0.41174699999999997</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I206" s="2">
         <v>200</v>
@@ -6543,10 +10553,10 @@
         <v>6034651.3191550002</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I207" s="2">
         <v>200</v>
@@ -6569,13 +10579,13 @@
         <v>0</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G208" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H208" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I208">
         <v>200</v>
